--- a/SP_Sklad/Rep/MatOutShort(2).xlsx
+++ b/SP_Sklad/Rep/MatOutShort(2).xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$I$19</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$I$63</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="MatOutDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
@@ -41,6 +41,9 @@
     <t>Контрагент:</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Код</t>
   </si>
   <si>
@@ -62,37 +65,82 @@
     <t>Яловичина</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Яловичина  1 сотру</t>
-  </si>
-  <si>
-    <t>кг.</t>
-  </si>
-  <si>
-    <t>Разом по катогорії:</t>
+    <t>Варені ковбаси</t>
+  </si>
+  <si>
+    <t>Варено-копчені ковбаси</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допоміжні матеріали </t>
+  </si>
+  <si>
+    <t>Напівкопчені ковбаси</t>
+  </si>
+  <si>
+    <t>Сосиски та сардельки</t>
   </si>
   <si>
     <t>Свинина</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Свинина не жирна</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Свинина напівжирна 50/50</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Свинина жирна</t>
+    <t>Сало та жири</t>
+  </si>
+  <si>
+    <t>Конина</t>
+  </si>
+  <si>
+    <t>Субпродукти яловичини та свинини</t>
+  </si>
+  <si>
+    <t>Мясо курей</t>
+  </si>
+  <si>
+    <t>Свинні напівфабрикати</t>
+  </si>
+  <si>
+    <t>Кури</t>
+  </si>
+  <si>
+    <t>Шинкі та рулети</t>
+  </si>
+  <si>
+    <t>Оболонка</t>
+  </si>
+  <si>
+    <t>Альмі спеції</t>
+  </si>
+  <si>
+    <t>Борисфен спеції</t>
+  </si>
+  <si>
+    <t>Інтехспайсез спеції (проксима)</t>
+  </si>
+  <si>
+    <t>Могунція спеції</t>
+  </si>
+  <si>
+    <t>Натуральні Спеції</t>
+  </si>
+  <si>
+    <t>Спеції</t>
+  </si>
+  <si>
+    <t>Целофан</t>
+  </si>
+  <si>
+    <t>Аміцель</t>
+  </si>
+  <si>
+    <t>Едікол</t>
+  </si>
+  <si>
+    <t>Наша Спеції</t>
+  </si>
+  <si>
+    <t>Спайс Ленд</t>
+  </si>
+  <si>
+    <t>Мясо Індика</t>
   </si>
   <si>
     <t>Всього по відомості:</t>
@@ -105,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -208,23 +256,6 @@
       <b/>
       <sz val="12"/>
       <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -286,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="15">
     <border/>
     <border>
       <left style="thin">
@@ -375,75 +406,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="23"/>
-      </left>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="23"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="hair">
-        <color indexed="23"/>
-      </right>
-      <top style="hair">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="55"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <top style="thin">
@@ -476,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -540,59 +502,25 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1010,8 +938,8 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f>CONCATENATE("з "&amp;"01.07.2016"," по "&amp;"30.09.2016")</f>
-        <v>з 01.07.2016 по 30.09.2016</v>
+        <f>CONCATENATE("з "&amp;"01.09.2016"," по "&amp;"30.09.2016")</f>
+        <v>з 01.09.2016 по 30.09.2016</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1051,7 +979,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -1060,24 +988,24 @@
     <row r="7" ht="9" customHeight="1"/>
     <row r="8" ht="18" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="21" customHeight="1">
@@ -1102,7 +1030,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="B11" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -1113,42 +1041,26 @@
       <c r="I11" s="26"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="28" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="B13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="32">
-        <v>5</v>
-      </c>
-      <c r="H12" s="33">
-        <f>IF(G12&gt;0,I12/G12," ")</f>
-        <v>12.359999999999999</v>
-      </c>
-      <c r="I12" s="34">
-        <v>61.799999999999997</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="35"/>
-      <c r="C13" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40">
-        <f>SUM(I12)</f>
-        <v>61.799999999999997</v>
-      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="B14" s="21"/>
@@ -1162,7 +1074,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="B15" s="24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -1173,206 +1085,606 @@
       <c r="I15" s="26"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="B17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="B19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="B21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="B23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="32">
-        <v>1</v>
-      </c>
-      <c r="H16" s="33">
-        <f>IF(G16&gt;0,I16/G16," ")</f>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="B25" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="B27" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" ht="12.75" customHeight="1">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="B29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="B31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="B33" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="B35" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="B37" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="B39" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="B41" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="B42" s="21"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" ht="12.75" customHeight="1">
+      <c r="B43" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" ht="12.75" customHeight="1">
+      <c r="B44" s="21"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+    </row>
+    <row r="45" ht="12.75" customHeight="1">
+      <c r="B45" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" ht="12.75" customHeight="1">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+    </row>
+    <row r="47" ht="12.75" customHeight="1">
+      <c r="B47" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" ht="12.75" customHeight="1">
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1">
+      <c r="B49" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="50" ht="12.75" customHeight="1">
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" ht="12.75" customHeight="1">
+      <c r="B51" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="23"/>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="B53" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="26"/>
+    </row>
+    <row r="54" ht="12.75" customHeight="1">
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+    </row>
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="B55" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
+    </row>
+    <row r="56" ht="12.75" customHeight="1">
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
+    </row>
+    <row r="57" ht="12.75" customHeight="1">
+      <c r="B57" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" ht="12.75" customHeight="1">
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
+    </row>
+    <row r="59" ht="12.75" customHeight="1">
+      <c r="B59" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="26"/>
+    </row>
+    <row r="60" ht="12.75" customHeight="1">
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
+    </row>
+    <row r="61" ht="12.75" customHeight="1">
+      <c r="B61" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+    </row>
+    <row r="63" ht="12.75" customHeight="1">
+      <c r="B63" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" ht="12.75" customHeight="1">
+      <c r="B64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+    </row>
+    <row r="65" ht="12.75" customHeight="1">
+      <c r="B65" s="30"/>
+      <c r="C65" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="34">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="B17" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="32">
-        <v>5</v>
-      </c>
-      <c r="H17" s="33">
-        <f>IF(G17&gt;0,I17/G17," ")</f>
-        <v>10</v>
-      </c>
-      <c r="I17" s="34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="32">
-        <v>3</v>
-      </c>
-      <c r="H18" s="33">
-        <f>IF(G18&gt;0,I18/G18," ")</f>
-        <v>1.0600000000000001</v>
-      </c>
-      <c r="I18" s="34">
-        <v>3.1800000000000002</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40">
-        <f>SUM(I16:I18)</f>
-        <v>93.180000000000007</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
-    <row r="49" ht="12.75" customHeight="1"/>
-    <row r="50" ht="12.75" customHeight="1"/>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1"/>
-    <row r="53" ht="12.75" customHeight="1"/>
-    <row r="54" ht="12.75" customHeight="1"/>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
-    <row r="58" ht="12.75" customHeight="1"/>
-    <row r="59" ht="12.75" customHeight="1"/>
-    <row r="60" ht="12.75" customHeight="1"/>
-    <row r="61" ht="12.75" customHeight="1"/>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="35"/>
+    </row>
+    <row r="66" ht="12.75" customHeight="1">
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+    </row>
+    <row r="67" ht="12.75" customHeight="1">
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+    </row>
+    <row r="68" ht="12.75" customHeight="1">
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1">
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+    </row>
+    <row r="70" ht="12.75" customHeight="1">
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+    </row>
+    <row r="71" ht="12.75" customHeight="1">
+      <c r="A71" s="40"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+    </row>
     <row r="72" ht="12.75" customHeight="1"/>
     <row r="73" ht="12.75" customHeight="1"/>
     <row r="74" ht="12.75" customHeight="1"/>
@@ -1409,22 +1721,87 @@
     <row r="105" ht="12.75" customHeight="1"/>
     <row r="106" ht="12.75" customHeight="1"/>
     <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="35">
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C8:E9"/>
-    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B68:F68"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B13:I13"/>
     <mergeCell ref="B15:I15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B63:I63"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>

--- a/SP_Sklad/Rep/MatOutShort(2).xlsx
+++ b/SP_Sklad/Rep/MatOutShort(2).xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$I$63</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$I$38</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="MatOutDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
@@ -41,9 +41,6 @@
     <t>Контрагент:</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Код</t>
   </si>
   <si>
@@ -62,85 +59,73 @@
     <t>Сума, грн.</t>
   </si>
   <si>
+    <t xml:space="preserve">Допоміжні матеріали </t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Емульсія свинної шкури</t>
+  </si>
+  <si>
+    <t>кг.</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилка </t>
+  </si>
+  <si>
+    <t>Разом по катогорії:</t>
+  </si>
+  <si>
+    <t>Конина</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Мясо конини вищого сорту</t>
+  </si>
+  <si>
+    <t>Сало та жири</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Сало хребтове</t>
+  </si>
+  <si>
+    <t>Свинина</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Свинина не жирна</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Свинина напівжирна 50/50</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Свинина жирна</t>
+  </si>
+  <si>
     <t>Яловичина</t>
   </si>
   <si>
-    <t>Варені ковбаси</t>
-  </si>
-  <si>
-    <t>Варено-копчені ковбаси</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Допоміжні матеріали </t>
-  </si>
-  <si>
-    <t>Напівкопчені ковбаси</t>
-  </si>
-  <si>
-    <t>Сосиски та сардельки</t>
-  </si>
-  <si>
-    <t>Свинина</t>
-  </si>
-  <si>
-    <t>Сало та жири</t>
-  </si>
-  <si>
-    <t>Конина</t>
-  </si>
-  <si>
-    <t>Субпродукти яловичини та свинини</t>
-  </si>
-  <si>
-    <t>Мясо курей</t>
-  </si>
-  <si>
-    <t>Свинні напівфабрикати</t>
-  </si>
-  <si>
-    <t>Кури</t>
-  </si>
-  <si>
-    <t>Шинкі та рулети</t>
-  </si>
-  <si>
-    <t>Оболонка</t>
-  </si>
-  <si>
-    <t>Альмі спеції</t>
-  </si>
-  <si>
-    <t>Борисфен спеції</t>
-  </si>
-  <si>
-    <t>Інтехспайсез спеції (проксима)</t>
-  </si>
-  <si>
-    <t>Могунція спеції</t>
-  </si>
-  <si>
-    <t>Натуральні Спеції</t>
-  </si>
-  <si>
-    <t>Спеції</t>
-  </si>
-  <si>
-    <t>Целофан</t>
-  </si>
-  <si>
-    <t>Аміцель</t>
-  </si>
-  <si>
-    <t>Едікол</t>
-  </si>
-  <si>
-    <t>Наша Спеції</t>
-  </si>
-  <si>
-    <t>Спайс Ленд</t>
-  </si>
-  <si>
-    <t>Мясо Індика</t>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яловичина  1 сотру</t>
   </si>
   <si>
     <t>Всього по відомості:</t>
@@ -153,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -259,6 +244,23 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Times New Roman Cyr"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color indexed="16"/>
@@ -297,7 +299,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +318,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border/>
     <border>
       <left style="thin">
@@ -402,6 +410,75 @@
       </right>
       <bottom style="hair">
         <color indexed="23"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="23"/>
+      </left>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="23"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="hair">
+        <color indexed="23"/>
+      </right>
+      <top style="hair">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
       </bottom>
     </border>
     <border>
@@ -438,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,33 +571,73 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,6 +1012,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A10" ySplit="9"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -938,8 +1056,8 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f>CONCATENATE("з "&amp;"01.09.2016"," по "&amp;"30.09.2016")</f>
-        <v>з 01.09.2016 по 30.09.2016</v>
+        <f>CONCATENATE("з "&amp;"01.09.2015"," по "&amp;"30.09.2016")</f>
+        <v>з 01.09.2015 по 30.09.2016</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -979,7 +1097,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
@@ -988,24 +1106,24 @@
     <row r="7" ht="9" customHeight="1"/>
     <row r="8" ht="18" customHeight="1">
       <c r="B8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" ht="21" customHeight="1">
@@ -1030,7 +1148,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="B11" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -1041,48 +1159,75 @@
       <c r="I11" s="26"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
+      <c r="B12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="32">
+        <v>1</v>
+      </c>
+      <c r="H12" s="33">
+        <f>IF(G12&gt;0,I12/G12," ")</f>
+        <v>6</v>
+      </c>
+      <c r="I12" s="34">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="B13" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="32">
+        <v>1</v>
+      </c>
+      <c r="H13" s="33">
+        <f>IF(G13&gt;0,I13/G13," ")</f>
+        <v>7</v>
+      </c>
+      <c r="I13" s="34">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40">
+        <f>SUM(I12:I13)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="B16" s="21"/>
@@ -1096,7 +1241,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -1107,92 +1252,122 @@
       <c r="I17" s="26"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
+      <c r="B18" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="32">
+        <v>1</v>
+      </c>
+      <c r="H18" s="33">
+        <f>IF(G18&gt;0,I18/G18," ")</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="34">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40">
+        <f>SUM(I18)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="B22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="B23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="33">
+        <f>IF(G23&gt;0,I23/G23," ")</f>
+        <v>4</v>
+      </c>
+      <c r="I23" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="B24" s="35"/>
+      <c r="C24" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="23"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40">
+        <f>SUM(I23)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="B26" s="21"/>
@@ -1206,7 +1381,7 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="B27" s="24" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -1217,474 +1392,269 @@
       <c r="I27" s="26"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
+      <c r="B28" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="32">
+        <v>1</v>
+      </c>
+      <c r="H28" s="33">
+        <f>IF(G28&gt;0,I28/G28," ")</f>
+        <v>40</v>
+      </c>
+      <c r="I28" s="34">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="B29" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
+      <c r="B29" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="32">
+        <v>5</v>
+      </c>
+      <c r="H29" s="33">
+        <f>IF(G29&gt;0,I29/G29," ")</f>
+        <v>10</v>
+      </c>
+      <c r="I29" s="34">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="23"/>
+      <c r="B30" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="32">
+        <v>3</v>
+      </c>
+      <c r="H30" s="33">
+        <f>IF(G30&gt;0,I30/G30," ")</f>
+        <v>1.0600000000000001</v>
+      </c>
+      <c r="I30" s="34">
+        <v>3.1800000000000002</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="B31" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40">
+        <f>SUM(I28:I30)</f>
+        <v>93.180000000000007</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="B33" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="26"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="B35" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26"/>
+      <c r="B35" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="H35" s="33">
+        <f>IF(G35&gt;0,I35/G35," ")</f>
+        <v>12.327272727272726</v>
+      </c>
+      <c r="I35" s="34">
+        <v>67.799999999999997</v>
+      </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="23"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="40">
+        <f>SUM(I35)</f>
+        <v>67.799999999999997</v>
+      </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="B37" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="26"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="23"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+    </row>
+    <row r="38" ht="18.75" customHeight="1">
+      <c r="B38" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="48">
+        <v>180.97999999999999</v>
+      </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="B39" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
+      <c r="B39" s="49"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="B41" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="26"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="B43" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="26"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="B45" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="B47" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="26"/>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="B49" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="B51" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="26"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="B53" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="26"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="23"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="B55" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="26"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="B57" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="26"/>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="23"/>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="B59" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="26"/>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="B61" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="26"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="23"/>
-    </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="B63" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="26"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="B64" s="27"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-    </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="B65" s="30"/>
-      <c r="C65" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="35"/>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="B66" s="36"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-    </row>
-    <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="40"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-    </row>
-    <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="40"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-    </row>
+      <c r="A46" s="54"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="56"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+    </row>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
     <row r="72" ht="12.75" customHeight="1"/>
     <row r="73" ht="12.75" customHeight="1"/>
     <row r="74" ht="12.75" customHeight="1"/>
@@ -1740,68 +1710,30 @@
     <row r="124" ht="12.75" customHeight="1"/>
     <row r="125" ht="12.75" customHeight="1"/>
     <row r="126" ht="12.75" customHeight="1"/>
-    <row r="127" ht="12.75" customHeight="1"/>
-    <row r="128" ht="12.75" customHeight="1"/>
-    <row r="129" ht="12.75" customHeight="1"/>
-    <row r="130" ht="12.75" customHeight="1"/>
-    <row r="131" ht="12.75" customHeight="1"/>
-    <row r="132" ht="12.75" customHeight="1"/>
-    <row r="133" ht="12.75" customHeight="1"/>
-    <row r="134" ht="12.75" customHeight="1"/>
-    <row r="135" ht="12.75" customHeight="1"/>
-    <row r="136" ht="12.75" customHeight="1"/>
-    <row r="137" ht="12.75" customHeight="1"/>
-    <row r="138" ht="12.75" customHeight="1"/>
-    <row r="139" ht="12.75" customHeight="1"/>
-    <row r="140" ht="12.75" customHeight="1"/>
-    <row r="141" ht="12.75" customHeight="1"/>
-    <row r="142" ht="12.75" customHeight="1"/>
-    <row r="143" ht="12.75" customHeight="1"/>
-    <row r="144" ht="12.75" customHeight="1"/>
-    <row r="145" ht="12.75" customHeight="1"/>
-    <row r="146" ht="12.75" customHeight="1"/>
-    <row r="147" ht="12.75" customHeight="1"/>
-    <row r="148" ht="12.75" customHeight="1"/>
-    <row r="149" ht="12.75" customHeight="1"/>
-    <row r="150" ht="12.75" customHeight="1"/>
-    <row r="151" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="22">
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="C8:E9"/>
-    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B38:H38"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B41:I41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B45:I45"/>
-    <mergeCell ref="B47:I47"/>
-    <mergeCell ref="B49:I49"/>
-    <mergeCell ref="B51:I51"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B61:I61"/>
-    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="C35:E35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
